--- a/outcome/appendix/forecast/Enteric fever.xlsx
+++ b/outcome/appendix/forecast/Enteric fever.xlsx
@@ -424,7 +424,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>731.348620758439</v>
+        <v>731.345724879558</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -437,7 +437,7 @@
         <v>513</v>
       </c>
       <c r="I2" t="n">
-        <v>218.348620758439</v>
+        <v>218.345724879558</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -448,7 +448,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>607.104072561037</v>
+        <v>607.100639422298</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -461,7 +461,7 @@
         <v>364</v>
       </c>
       <c r="I3" t="n">
-        <v>243.104072561037</v>
+        <v>243.100639422298</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -472,7 +472,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>614.987932816338</v>
+        <v>614.983694268492</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -485,7 +485,7 @@
         <v>360</v>
       </c>
       <c r="I4" t="n">
-        <v>254.987932816338</v>
+        <v>254.983694268492</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -496,7 +496,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>823.842210514697</v>
+        <v>823.838724821293</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -509,7 +509,7 @@
         <v>415</v>
       </c>
       <c r="I5" t="n">
-        <v>408.842210514697</v>
+        <v>408.838724821293</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -520,7 +520,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>914.258410055905</v>
+        <v>914.257827128739</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -533,7 +533,7 @@
         <v>607</v>
       </c>
       <c r="I6" t="n">
-        <v>307.258410055905</v>
+        <v>307.257827128739</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -544,7 +544,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>1008.42674988418</v>
+        <v>1008.42837784241</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -557,7 +557,7 @@
         <v>832</v>
       </c>
       <c r="I7" t="n">
-        <v>176.426749884179</v>
+        <v>176.428377842407</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -568,7 +568,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>1047.17059898281</v>
+        <v>1047.17332414012</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -581,7 +581,7 @@
         <v>830</v>
       </c>
       <c r="I8" t="n">
-        <v>217.170598982807</v>
+        <v>217.173324140123</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -592,7 +592,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>1003.88341602207</v>
+        <v>1003.8851385269</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -605,7 +605,7 @@
         <v>830</v>
       </c>
       <c r="I9" t="n">
-        <v>173.883416022073</v>
+        <v>173.885138526898</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -616,7 +616,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>874.289882868127</v>
+        <v>874.290102923594</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -629,7 +629,7 @@
         <v>848</v>
       </c>
       <c r="I10" t="n">
-        <v>26.2898828681274</v>
+        <v>26.2901029235936</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -640,7 +640,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>781.737089620495</v>
+        <v>781.73607911309</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -653,7 +653,7 @@
         <v>689</v>
       </c>
       <c r="I11" t="n">
-        <v>92.7370896204945</v>
+        <v>92.7360791130902</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -664,7 +664,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>630.120093822125</v>
+        <v>630.118070387523</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -677,7 +677,7 @@
         <v>517</v>
       </c>
       <c r="I12" t="n">
-        <v>113.120093822125</v>
+        <v>113.118070387523</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -688,7 +688,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>578.789424136016</v>
+        <v>578.788063909279</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -701,7 +701,7 @@
         <v>483</v>
       </c>
       <c r="I13" t="n">
-        <v>95.789424136016</v>
+        <v>95.7880639092791</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -712,7 +712,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>748.559084657542</v>
+        <v>748.55475167144</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -725,7 +725,7 @@
         <v>362</v>
       </c>
       <c r="I14" t="n">
-        <v>386.559084657542</v>
+        <v>386.55475167144</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -736,7 +736,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>734.843191980678</v>
+        <v>734.838417966736</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -749,7 +749,7 @@
         <v>327</v>
       </c>
       <c r="I15" t="n">
-        <v>407.843191980678</v>
+        <v>407.838417966736</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -760,7 +760,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>657.572730583845</v>
+        <v>657.568105440341</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -773,7 +773,7 @@
         <v>487</v>
       </c>
       <c r="I16" t="n">
-        <v>170.572730583845</v>
+        <v>170.568105440341</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -784,7 +784,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>773.506761778392</v>
+        <v>773.502880142334</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -797,7 +797,7 @@
         <v>522</v>
       </c>
       <c r="I17" t="n">
-        <v>251.506761778392</v>
+        <v>251.502880142334</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -808,7 +808,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>855.729866105429</v>
+        <v>855.728976355619</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -821,7 +821,7 @@
         <v>649</v>
       </c>
       <c r="I18" t="n">
-        <v>206.729866105429</v>
+        <v>206.728976355619</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -832,7 +832,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>956.796421606283</v>
+        <v>956.79801407015</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -845,7 +845,7 @@
         <v>829</v>
       </c>
       <c r="I19" t="n">
-        <v>127.796421606283</v>
+        <v>127.79801407015</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -856,7 +856,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>1004.68435886402</v>
+        <v>1004.68815580462</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -869,7 +869,7 @@
         <v>939</v>
       </c>
       <c r="I20" t="n">
-        <v>65.6843588640154</v>
+        <v>65.6881558046224</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -880,7 +880,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>974.736427414704</v>
+        <v>974.739745031168</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -893,7 +893,7 @@
         <v>913</v>
       </c>
       <c r="I21" t="n">
-        <v>61.7364274147043</v>
+        <v>61.7397450311681</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -904,7 +904,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>866.69083211055</v>
+        <v>866.691776589229</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -917,7 +917,7 @@
         <v>786</v>
       </c>
       <c r="I22" t="n">
-        <v>80.6908321105502</v>
+        <v>80.6917765892291</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -928,7 +928,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>772.307411022557</v>
+        <v>772.305487874338</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -941,7 +941,7 @@
         <v>655</v>
       </c>
       <c r="I23" t="n">
-        <v>117.307411022557</v>
+        <v>117.305487874338</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -952,7 +952,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>621.258858298276</v>
+        <v>621.255524487602</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -965,7 +965,7 @@
         <v>524</v>
       </c>
       <c r="I24" t="n">
-        <v>97.2588582982764</v>
+        <v>97.2555244876016</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -976,7 +976,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>580.466074028897</v>
+        <v>580.464890477055</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -989,7 +989,7 @@
         <v>487</v>
       </c>
       <c r="I25" t="n">
-        <v>93.4660740288971</v>
+        <v>93.4648904770548</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1000,7 +1000,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>757.93919859622</v>
+        <v>757.934475540737</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -1013,7 +1013,7 @@
         <v>405</v>
       </c>
       <c r="I26" t="n">
-        <v>352.93919859622</v>
+        <v>352.934475540737</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1024,7 +1024,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>806.710845949055</v>
+        <v>806.706880027932</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -1037,7 +1037,7 @@
         <v>280</v>
       </c>
       <c r="I27" t="n">
-        <v>526.710845949055</v>
+        <v>526.706880027932</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1048,7 +1048,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>695.023042053916</v>
+        <v>695.018836198696</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -1061,7 +1061,7 @@
         <v>408</v>
       </c>
       <c r="I28" t="n">
-        <v>287.023042053916</v>
+        <v>287.018836198696</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1072,7 +1072,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>716.570681286232</v>
+        <v>716.562297228952</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -1085,7 +1085,7 @@
         <v>421</v>
       </c>
       <c r="I29" t="n">
-        <v>295.570681286232</v>
+        <v>295.562297228952</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1096,7 +1096,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>809.735101855601</v>
+        <v>809.734058222714</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -1109,7 +1109,7 @@
         <v>566</v>
       </c>
       <c r="I30" t="n">
-        <v>243.735101855601</v>
+        <v>243.734058222714</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1120,7 +1120,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>895.344453059462</v>
+        <v>895.345340749981</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -1133,7 +1133,7 @@
         <v>700</v>
       </c>
       <c r="I31" t="n">
-        <v>195.344453059462</v>
+        <v>195.345340749981</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1144,7 +1144,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>961.846664025444</v>
+        <v>961.8516790869</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -1157,7 +1157,7 @@
         <v>741</v>
       </c>
       <c r="I32" t="n">
-        <v>220.846664025444</v>
+        <v>220.8516790869</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1168,7 +1168,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>950.409572644786</v>
+        <v>950.414500240391</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -1181,7 +1181,7 @@
         <v>730</v>
       </c>
       <c r="I33" t="n">
-        <v>220.409572644786</v>
+        <v>220.414500240391</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1192,7 +1192,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>863.030481047646</v>
+        <v>863.032575936195</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -1205,7 +1205,7 @@
         <v>631</v>
       </c>
       <c r="I34" t="n">
-        <v>232.030481047646</v>
+        <v>232.032575936195</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1216,7 +1216,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>769.855081389686</v>
+        <v>769.852279835318</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
@@ -1229,7 +1229,7 @@
         <v>494</v>
       </c>
       <c r="I35" t="n">
-        <v>275.855081389686</v>
+        <v>275.852279835318</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1240,7 +1240,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>617.441436624235</v>
+        <v>617.437435734622</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -1253,7 +1253,7 @@
         <v>419</v>
       </c>
       <c r="I36" t="n">
-        <v>198.441436624235</v>
+        <v>198.437435734622</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1264,7 +1264,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>580.604539057361</v>
+        <v>580.603694898507</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
@@ -1277,7 +1277,7 @@
         <v>234</v>
       </c>
       <c r="I37" t="n">
-        <v>346.604539057361</v>
+        <v>346.603694898507</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1288,7 +1288,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>762.491606461433</v>
+        <v>762.486825731893</v>
       </c>
       <c r="C38"/>
       <c r="D38"/>
@@ -1301,7 +1301,7 @@
         <v>184</v>
       </c>
       <c r="I38" t="n">
-        <v>578.491606461433</v>
+        <v>578.486825731893</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1312,7 +1312,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>837.702261044772</v>
+        <v>837.699249453993</v>
       </c>
       <c r="C39"/>
       <c r="D39"/>
@@ -1325,7 +1325,7 @@
         <v>341</v>
       </c>
       <c r="I39" t="n">
-        <v>496.702261044772</v>
+        <v>496.699249453993</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1336,7 +1336,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>723.797694070299</v>
+        <v>723.793979890517</v>
       </c>
       <c r="C40"/>
       <c r="D40"/>
@@ -1349,7 +1349,7 @@
         <v>452</v>
       </c>
       <c r="I40" t="n">
-        <v>271.797694070299</v>
+        <v>271.793979890517</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1360,7 +1360,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>656.915287250021</v>
+        <v>656.908505600809</v>
       </c>
       <c r="C41"/>
       <c r="D41"/>
@@ -1373,7 +1373,7 @@
         <v>452</v>
       </c>
       <c r="I41" t="n">
-        <v>204.915287250021</v>
+        <v>204.908505600809</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1384,7 +1384,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>771.63636003642</v>
+        <v>771.63318392245</v>
       </c>
       <c r="C42"/>
       <c r="D42"/>
@@ -1397,7 +1397,7 @@
         <v>547</v>
       </c>
       <c r="I42" t="n">
-        <v>224.63636003642</v>
+        <v>224.63318392245</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1408,7 +1408,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>849.603828558184</v>
+        <v>849.603856410018</v>
       </c>
       <c r="C43"/>
       <c r="D43"/>
@@ -1421,7 +1421,7 @@
         <v>627</v>
       </c>
       <c r="I43" t="n">
-        <v>222.603828558184</v>
+        <v>222.603856410018</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1432,7 +1432,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>932.40669290429</v>
+        <v>932.411176990384</v>
       </c>
       <c r="C44"/>
       <c r="D44"/>
@@ -1445,7 +1445,7 @@
         <v>657</v>
       </c>
       <c r="I44" t="n">
-        <v>275.40669290429</v>
+        <v>275.411176990384</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1456,7 +1456,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>940.659103628235</v>
+        <v>940.665201536257</v>
       </c>
       <c r="C45"/>
       <c r="D45"/>
@@ -1469,7 +1469,7 @@
         <v>678</v>
       </c>
       <c r="I45" t="n">
-        <v>262.659103628235</v>
+        <v>262.665201536257</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1480,7 +1480,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>865.974051867363</v>
+        <v>865.977576698948</v>
       </c>
       <c r="C46"/>
       <c r="D46"/>
@@ -1493,7 +1493,7 @@
         <v>596</v>
       </c>
       <c r="I46" t="n">
-        <v>269.974051867363</v>
+        <v>269.977576698948</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1504,7 +1504,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>770.553572301961</v>
+        <v>770.550002650945</v>
       </c>
       <c r="C47"/>
       <c r="D47"/>
@@ -1517,7 +1517,7 @@
         <v>480</v>
       </c>
       <c r="I47" t="n">
-        <v>290.553572301961</v>
+        <v>290.550002650945</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1528,7 +1528,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>616.319470296623</v>
+        <v>616.315096692513</v>
       </c>
       <c r="C48"/>
       <c r="D48"/>
@@ -1541,7 +1541,7 @@
         <v>377</v>
       </c>
       <c r="I48" t="n">
-        <v>239.319470296623</v>
+        <v>239.315096692513</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1552,7 +1552,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>580.503920688345</v>
+        <v>580.503507513283</v>
       </c>
       <c r="C49"/>
       <c r="D49"/>
@@ -1565,7 +1565,7 @@
         <v>358</v>
       </c>
       <c r="I49" t="n">
-        <v>222.503920688345</v>
+        <v>222.503507513283</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/Enteric fever.xlsx
+++ b/outcome/appendix/forecast/Enteric fever.xlsx
@@ -424,7 +424,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>731.345724879558</v>
+        <v>733.523283514245</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -437,7 +437,7 @@
         <v>513</v>
       </c>
       <c r="I2" t="n">
-        <v>218.345724879558</v>
+        <v>220.523283514245</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -448,7 +448,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>607.100639422298</v>
+        <v>601.878685894382</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -461,7 +461,7 @@
         <v>364</v>
       </c>
       <c r="I3" t="n">
-        <v>243.100639422298</v>
+        <v>237.878685894382</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -472,7 +472,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>614.983694268492</v>
+        <v>627.316477101609</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -485,7 +485,7 @@
         <v>360</v>
       </c>
       <c r="I4" t="n">
-        <v>254.983694268492</v>
+        <v>267.316477101609</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -496,7 +496,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>823.838724821293</v>
+        <v>832.984989844256</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -509,7 +509,7 @@
         <v>415</v>
       </c>
       <c r="I5" t="n">
-        <v>408.838724821293</v>
+        <v>417.984989844256</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -520,7 +520,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>914.257827128739</v>
+        <v>928.846756192165</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -533,7 +533,7 @@
         <v>607</v>
       </c>
       <c r="I6" t="n">
-        <v>307.257827128739</v>
+        <v>321.846756192165</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -544,7 +544,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>1008.42837784241</v>
+        <v>1017.02203277488</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -557,7 +557,7 @@
         <v>832</v>
       </c>
       <c r="I7" t="n">
-        <v>176.428377842407</v>
+        <v>185.022032774881</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -568,7 +568,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>1047.17332414012</v>
+        <v>1051.29442937757</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -581,7 +581,7 @@
         <v>830</v>
       </c>
       <c r="I8" t="n">
-        <v>217.173324140123</v>
+        <v>221.294429377569</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -592,7 +592,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>1003.8851385269</v>
+        <v>1005.49856490501</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -605,7 +605,7 @@
         <v>830</v>
       </c>
       <c r="I9" t="n">
-        <v>173.885138526898</v>
+        <v>175.498564905007</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -616,7 +616,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>874.290102923594</v>
+        <v>867.177987915498</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -629,7 +629,7 @@
         <v>848</v>
       </c>
       <c r="I10" t="n">
-        <v>26.2901029235936</v>
+        <v>19.1779879154982</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -640,7 +640,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>781.73607911309</v>
+        <v>769.528952866834</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -653,7 +653,7 @@
         <v>689</v>
       </c>
       <c r="I11" t="n">
-        <v>92.7360791130902</v>
+        <v>80.5289528668343</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -664,7 +664,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>630.118070387523</v>
+        <v>627.834329343119</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -677,7 +677,7 @@
         <v>517</v>
       </c>
       <c r="I12" t="n">
-        <v>113.118070387523</v>
+        <v>110.834329343119</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -688,7 +688,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>578.788063909279</v>
+        <v>576.658084540401</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -701,7 +701,7 @@
         <v>483</v>
       </c>
       <c r="I13" t="n">
-        <v>95.7880639092791</v>
+        <v>93.6580845404014</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -712,7 +712,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>748.55475167144</v>
+        <v>751.042985289605</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -725,7 +725,7 @@
         <v>362</v>
       </c>
       <c r="I14" t="n">
-        <v>386.55475167144</v>
+        <v>389.042985289605</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -736,7 +736,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>734.838417966736</v>
+        <v>722.238858426137</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -749,7 +749,7 @@
         <v>327</v>
       </c>
       <c r="I15" t="n">
-        <v>407.838417966736</v>
+        <v>395.238858426137</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -760,7 +760,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>657.568105440341</v>
+        <v>682.229489323739</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -773,7 +773,7 @@
         <v>487</v>
       </c>
       <c r="I16" t="n">
-        <v>170.568105440341</v>
+        <v>195.229489323739</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -784,7 +784,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>773.502880142334</v>
+        <v>780.109391888646</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -797,7 +797,7 @@
         <v>522</v>
       </c>
       <c r="I17" t="n">
-        <v>251.502880142334</v>
+        <v>258.109391888646</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -808,7 +808,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>855.728976355619</v>
+        <v>862.497046758064</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -821,7 +821,7 @@
         <v>649</v>
       </c>
       <c r="I18" t="n">
-        <v>206.728976355619</v>
+        <v>213.497046758064</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -832,7 +832,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>956.79801407015</v>
+        <v>959.448294357791</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -845,7 +845,7 @@
         <v>829</v>
       </c>
       <c r="I19" t="n">
-        <v>127.79801407015</v>
+        <v>130.448294357791</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -856,7 +856,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>1004.68815580462</v>
+        <v>1010.53834498072</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -869,7 +869,7 @@
         <v>939</v>
       </c>
       <c r="I20" t="n">
-        <v>65.6881558046224</v>
+        <v>71.5383449807211</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -880,7 +880,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>974.739745031168</v>
+        <v>981.132530767995</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -893,7 +893,7 @@
         <v>913</v>
       </c>
       <c r="I21" t="n">
-        <v>61.7397450311681</v>
+        <v>68.1325307679946</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -904,7 +904,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>866.691776589229</v>
+        <v>858.418263512794</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -917,7 +917,7 @@
         <v>786</v>
       </c>
       <c r="I22" t="n">
-        <v>80.6917765892291</v>
+        <v>72.4182635127939</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -928,7 +928,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>772.305487874338</v>
+        <v>748.646825469082</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -941,7 +941,7 @@
         <v>655</v>
       </c>
       <c r="I23" t="n">
-        <v>117.305487874338</v>
+        <v>93.6468254690818</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -952,7 +952,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>621.255524487602</v>
+        <v>614.560086421567</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -965,7 +965,7 @@
         <v>524</v>
       </c>
       <c r="I24" t="n">
-        <v>97.2555244876016</v>
+        <v>90.5600864215673</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -976,7 +976,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>580.464890477055</v>
+        <v>579.423700374557</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -989,7 +989,7 @@
         <v>487</v>
       </c>
       <c r="I25" t="n">
-        <v>93.4648904770548</v>
+        <v>92.4237003745568</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1000,7 +1000,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>757.934475540737</v>
+        <v>761.743449116567</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -1013,7 +1013,7 @@
         <v>405</v>
       </c>
       <c r="I26" t="n">
-        <v>352.934475540737</v>
+        <v>356.743449116567</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1024,7 +1024,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>806.706880027932</v>
+        <v>797.990387630679</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -1037,7 +1037,7 @@
         <v>280</v>
       </c>
       <c r="I27" t="n">
-        <v>526.706880027932</v>
+        <v>517.990387630679</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1048,7 +1048,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>695.018836198696</v>
+        <v>728.68762079743</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -1061,7 +1061,7 @@
         <v>408</v>
       </c>
       <c r="I28" t="n">
-        <v>287.018836198696</v>
+        <v>320.68762079743</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1072,7 +1072,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>716.562297228952</v>
+        <v>750.323705379139</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -1085,7 +1085,7 @@
         <v>421</v>
       </c>
       <c r="I29" t="n">
-        <v>295.562297228952</v>
+        <v>329.323705379139</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1096,7 +1096,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>809.734058222714</v>
+        <v>816.344087574172</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -1109,7 +1109,7 @@
         <v>566</v>
       </c>
       <c r="I30" t="n">
-        <v>243.734058222714</v>
+        <v>250.344087574172</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1120,7 +1120,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>895.345340749981</v>
+        <v>884.629612397509</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -1133,7 +1133,7 @@
         <v>700</v>
       </c>
       <c r="I31" t="n">
-        <v>195.345340749981</v>
+        <v>184.629612397509</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1144,7 +1144,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>961.8516790869</v>
+        <v>944.780468066727</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -1157,7 +1157,7 @@
         <v>741</v>
       </c>
       <c r="I32" t="n">
-        <v>220.8516790869</v>
+        <v>203.780468066727</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1168,7 +1168,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>950.414500240391</v>
+        <v>946.803815486472</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -1181,7 +1181,7 @@
         <v>730</v>
       </c>
       <c r="I33" t="n">
-        <v>220.414500240391</v>
+        <v>216.803815486472</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1192,7 +1192,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>863.032575936195</v>
+        <v>852.960481619096</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -1205,7 +1205,7 @@
         <v>631</v>
       </c>
       <c r="I34" t="n">
-        <v>232.032575936195</v>
+        <v>221.960481619096</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1216,7 +1216,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>769.852279835318</v>
+        <v>731.856018713857</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
@@ -1229,7 +1229,7 @@
         <v>494</v>
       </c>
       <c r="I35" t="n">
-        <v>275.852279835318</v>
+        <v>237.856018713857</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1240,7 +1240,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>617.437435734622</v>
+        <v>605.729004209455</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -1253,7 +1253,7 @@
         <v>419</v>
       </c>
       <c r="I36" t="n">
-        <v>198.437435734622</v>
+        <v>186.729004209455</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1264,7 +1264,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>580.603694898507</v>
+        <v>583.661150633767</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
@@ -1277,7 +1277,7 @@
         <v>234</v>
       </c>
       <c r="I37" t="n">
-        <v>346.603694898507</v>
+        <v>349.661150633767</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1288,7 +1288,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>762.486825731893</v>
+        <v>767.272821858855</v>
       </c>
       <c r="C38"/>
       <c r="D38"/>
@@ -1301,7 +1301,7 @@
         <v>184</v>
       </c>
       <c r="I38" t="n">
-        <v>578.486825731893</v>
+        <v>583.272821858855</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1312,7 +1312,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>837.699249453993</v>
+        <v>834.988772582323</v>
       </c>
       <c r="C39"/>
       <c r="D39"/>
@@ -1325,7 +1325,7 @@
         <v>341</v>
       </c>
       <c r="I39" t="n">
-        <v>496.699249453993</v>
+        <v>493.988772582323</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1336,7 +1336,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>723.793979890517</v>
+        <v>769.622811768491</v>
       </c>
       <c r="C40"/>
       <c r="D40"/>
@@ -1349,7 +1349,7 @@
         <v>452</v>
       </c>
       <c r="I40" t="n">
-        <v>271.793979890517</v>
+        <v>317.622811768491</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1360,7 +1360,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>656.908505600809</v>
+        <v>714.935499912302</v>
       </c>
       <c r="C41"/>
       <c r="D41"/>
@@ -1373,7 +1373,7 @@
         <v>452</v>
       </c>
       <c r="I41" t="n">
-        <v>204.908505600809</v>
+        <v>262.935499912302</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1384,7 +1384,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>771.63318392245</v>
+        <v>777.10205773345</v>
       </c>
       <c r="C42"/>
       <c r="D42"/>
@@ -1397,7 +1397,7 @@
         <v>547</v>
       </c>
       <c r="I42" t="n">
-        <v>224.63318392245</v>
+        <v>230.10205773345</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1408,7 +1408,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>849.603856410018</v>
+        <v>838.149972511153</v>
       </c>
       <c r="C43"/>
       <c r="D43"/>
@@ -1421,7 +1421,7 @@
         <v>627</v>
       </c>
       <c r="I43" t="n">
-        <v>222.603856410018</v>
+        <v>211.149972511153</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1432,7 +1432,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>932.411176990384</v>
+        <v>894.124812989243</v>
       </c>
       <c r="C44"/>
       <c r="D44"/>
@@ -1445,7 +1445,7 @@
         <v>657</v>
       </c>
       <c r="I44" t="n">
-        <v>275.411176990384</v>
+        <v>237.124812989243</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1456,7 +1456,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>940.665201536257</v>
+        <v>911.212088723518</v>
       </c>
       <c r="C45"/>
       <c r="D45"/>
@@ -1469,7 +1469,7 @@
         <v>678</v>
       </c>
       <c r="I45" t="n">
-        <v>262.665201536257</v>
+        <v>233.212088723518</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1480,7 +1480,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>865.977576698948</v>
+        <v>843.426258426795</v>
       </c>
       <c r="C46"/>
       <c r="D46"/>
@@ -1493,7 +1493,7 @@
         <v>596</v>
       </c>
       <c r="I46" t="n">
-        <v>269.977576698948</v>
+        <v>247.426258426795</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1504,7 +1504,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>770.550002650945</v>
+        <v>717.94566674388</v>
       </c>
       <c r="C47"/>
       <c r="D47"/>
@@ -1517,7 +1517,7 @@
         <v>480</v>
       </c>
       <c r="I47" t="n">
-        <v>290.550002650945</v>
+        <v>237.94566674388</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1528,7 +1528,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>616.315096692513</v>
+        <v>600.950887086224</v>
       </c>
       <c r="C48"/>
       <c r="D48"/>
@@ -1541,7 +1541,7 @@
         <v>377</v>
       </c>
       <c r="I48" t="n">
-        <v>239.315096692513</v>
+        <v>223.950887086224</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1552,7 +1552,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>580.503507513283</v>
+        <v>591.253318721126</v>
       </c>
       <c r="C49"/>
       <c r="D49"/>
@@ -1565,7 +1565,7 @@
         <v>358</v>
       </c>
       <c r="I49" t="n">
-        <v>222.503507513283</v>
+        <v>233.253318721126</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/Enteric fever.xlsx
+++ b/outcome/appendix/forecast/Enteric fever.xlsx
@@ -424,7 +424,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>733.523283514245</v>
+        <v>731.634050990736</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -437,7 +437,7 @@
         <v>513</v>
       </c>
       <c r="I2" t="n">
-        <v>220.523283514245</v>
+        <v>218.634050990736</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -448,7 +448,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>601.878685894382</v>
+        <v>607.870083681745</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -461,7 +461,7 @@
         <v>364</v>
       </c>
       <c r="I3" t="n">
-        <v>237.878685894382</v>
+        <v>243.870083681745</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -472,7 +472,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>627.316477101609</v>
+        <v>614.870684879077</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -485,7 +485,7 @@
         <v>360</v>
       </c>
       <c r="I4" t="n">
-        <v>267.316477101609</v>
+        <v>254.870684879077</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -496,7 +496,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>832.984989844256</v>
+        <v>823.970611832034</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -509,7 +509,7 @@
         <v>415</v>
       </c>
       <c r="I5" t="n">
-        <v>417.984989844256</v>
+        <v>408.970611832034</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -520,7 +520,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>928.846756192165</v>
+        <v>916.025500464003</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -533,7 +533,7 @@
         <v>607</v>
       </c>
       <c r="I6" t="n">
-        <v>321.846756192165</v>
+        <v>309.025500464003</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -544,7 +544,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>1017.02203277488</v>
+        <v>1010.62988789579</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -557,7 +557,7 @@
         <v>832</v>
       </c>
       <c r="I7" t="n">
-        <v>185.022032774881</v>
+        <v>178.629887895792</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -568,7 +568,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>1051.29442937757</v>
+        <v>1051.80736031454</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -581,7 +581,7 @@
         <v>830</v>
       </c>
       <c r="I8" t="n">
-        <v>221.294429377569</v>
+        <v>221.807360314541</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -592,7 +592,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>1005.49856490501</v>
+        <v>1007.45624683723</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -605,7 +605,7 @@
         <v>830</v>
       </c>
       <c r="I9" t="n">
-        <v>175.498564905007</v>
+        <v>177.456246837231</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -616,7 +616,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>867.177987915498</v>
+        <v>874.850218908653</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -629,7 +629,7 @@
         <v>848</v>
       </c>
       <c r="I10" t="n">
-        <v>19.1779879154982</v>
+        <v>26.8502189086531</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -640,7 +640,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>769.528952866834</v>
+        <v>779.681175002933</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -653,7 +653,7 @@
         <v>689</v>
       </c>
       <c r="I11" t="n">
-        <v>80.5289528668343</v>
+        <v>90.6811750029334</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -664,7 +664,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>627.834329343119</v>
+        <v>629.47090436452</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -677,7 +677,7 @@
         <v>517</v>
       </c>
       <c r="I12" t="n">
-        <v>110.834329343119</v>
+        <v>112.47090436452</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -688,7 +688,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>576.658084540401</v>
+        <v>578.766158452991</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -701,7 +701,7 @@
         <v>483</v>
       </c>
       <c r="I13" t="n">
-        <v>93.6580845404014</v>
+        <v>95.7661584529911</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -712,7 +712,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>751.042985289605</v>
+        <v>749.289668387384</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -725,7 +725,7 @@
         <v>362</v>
       </c>
       <c r="I14" t="n">
-        <v>389.042985289605</v>
+        <v>387.289668387384</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -736,7 +736,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>722.238858426137</v>
+        <v>736.180348042971</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -749,7 +749,7 @@
         <v>327</v>
       </c>
       <c r="I15" t="n">
-        <v>395.238858426137</v>
+        <v>409.180348042971</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -760,7 +760,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>682.229489323739</v>
+        <v>657.74419003204</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -773,7 +773,7 @@
         <v>487</v>
       </c>
       <c r="I16" t="n">
-        <v>195.229489323739</v>
+        <v>170.74419003204</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -784,7 +784,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>780.109391888646</v>
+        <v>773.609509520636</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -797,7 +797,7 @@
         <v>522</v>
       </c>
       <c r="I17" t="n">
-        <v>258.109391888646</v>
+        <v>251.609509520636</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -808,7 +808,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>862.497046758064</v>
+        <v>857.713982962948</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -821,7 +821,7 @@
         <v>649</v>
       </c>
       <c r="I18" t="n">
-        <v>213.497046758064</v>
+        <v>208.713982962948</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -832,7 +832,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>959.448294357791</v>
+        <v>960.867376738233</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -845,7 +845,7 @@
         <v>829</v>
       </c>
       <c r="I19" t="n">
-        <v>130.448294357791</v>
+        <v>131.867376738233</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -856,7 +856,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>1010.53834498072</v>
+        <v>1011.14164987985</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -869,7 +869,7 @@
         <v>939</v>
       </c>
       <c r="I20" t="n">
-        <v>71.5383449807211</v>
+        <v>72.1416498798529</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -880,7 +880,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>981.132530767995</v>
+        <v>981.392891935124</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -893,7 +893,7 @@
         <v>913</v>
       </c>
       <c r="I21" t="n">
-        <v>68.1325307679946</v>
+        <v>68.3928919351238</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -904,7 +904,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>858.418263512794</v>
+        <v>868.096097779587</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -917,7 +917,7 @@
         <v>786</v>
       </c>
       <c r="I22" t="n">
-        <v>72.4182635127939</v>
+        <v>82.0960977795871</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -928,7 +928,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>748.646825469082</v>
+        <v>766.308935591763</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -941,7 +941,7 @@
         <v>655</v>
       </c>
       <c r="I23" t="n">
-        <v>93.6468254690818</v>
+        <v>111.308935591763</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -952,7 +952,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>614.560086421567</v>
+        <v>619.276558587264</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -965,7 +965,7 @@
         <v>524</v>
       </c>
       <c r="I24" t="n">
-        <v>90.5600864215673</v>
+        <v>95.2765585872639</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -976,7 +976,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>579.423700374557</v>
+        <v>580.909522634798</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -989,7 +989,7 @@
         <v>487</v>
       </c>
       <c r="I25" t="n">
-        <v>92.4237003745568</v>
+        <v>93.9095226347982</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1000,7 +1000,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>761.743449116567</v>
+        <v>758.969991767529</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -1013,7 +1013,7 @@
         <v>405</v>
       </c>
       <c r="I26" t="n">
-        <v>356.743449116567</v>
+        <v>353.969991767529</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1024,7 +1024,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>797.990387630679</v>
+        <v>808.709524577327</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -1037,7 +1037,7 @@
         <v>280</v>
       </c>
       <c r="I27" t="n">
-        <v>517.990387630679</v>
+        <v>528.709524577327</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1048,7 +1048,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>728.68762079743</v>
+        <v>695.46451195807</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -1061,7 +1061,7 @@
         <v>408</v>
       </c>
       <c r="I28" t="n">
-        <v>320.68762079743</v>
+        <v>287.46451195807</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1072,7 +1072,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>750.323705379139</v>
+        <v>714.127001191491</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -1085,7 +1085,7 @@
         <v>421</v>
       </c>
       <c r="I29" t="n">
-        <v>329.323705379139</v>
+        <v>293.127001191491</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1096,7 +1096,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>816.344087574172</v>
+        <v>809.940366914215</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -1109,7 +1109,7 @@
         <v>566</v>
       </c>
       <c r="I30" t="n">
-        <v>250.344087574172</v>
+        <v>243.940366914215</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1120,7 +1120,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>884.629612397509</v>
+        <v>893.474441349911</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -1133,7 +1133,7 @@
         <v>700</v>
       </c>
       <c r="I31" t="n">
-        <v>184.629612397509</v>
+        <v>193.474441349911</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1144,7 +1144,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>944.780468066727</v>
+        <v>965.927832167815</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -1157,7 +1157,7 @@
         <v>741</v>
       </c>
       <c r="I32" t="n">
-        <v>203.780468066727</v>
+        <v>224.927832167815</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1168,7 +1168,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>946.803815486472</v>
+        <v>957.727181149081</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -1181,7 +1181,7 @@
         <v>730</v>
       </c>
       <c r="I33" t="n">
-        <v>216.803815486472</v>
+        <v>227.727181149081</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1192,7 +1192,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>852.960481619096</v>
+        <v>865.744685987109</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -1205,7 +1205,7 @@
         <v>631</v>
       </c>
       <c r="I34" t="n">
-        <v>221.960481619096</v>
+        <v>234.744685987109</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1216,7 +1216,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>731.856018713857</v>
+        <v>759.824791357511</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
@@ -1229,7 +1229,7 @@
         <v>494</v>
       </c>
       <c r="I35" t="n">
-        <v>237.856018713857</v>
+        <v>265.824791357511</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1240,7 +1240,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>605.729004209455</v>
+        <v>614.088313255905</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -1253,7 +1253,7 @@
         <v>419</v>
       </c>
       <c r="I36" t="n">
-        <v>186.729004209455</v>
+        <v>195.088313255905</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1264,7 +1264,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>583.661150633767</v>
+        <v>581.716724469889</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
@@ -1277,7 +1277,7 @@
         <v>234</v>
       </c>
       <c r="I37" t="n">
-        <v>349.661150633767</v>
+        <v>347.716724469889</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1288,7 +1288,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>767.272821858855</v>
+        <v>763.691181483323</v>
       </c>
       <c r="C38"/>
       <c r="D38"/>
@@ -1301,7 +1301,7 @@
         <v>184</v>
       </c>
       <c r="I38" t="n">
-        <v>583.272821858855</v>
+        <v>579.691181483323</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1312,7 +1312,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>834.988772582323</v>
+        <v>840.372984954311</v>
       </c>
       <c r="C39"/>
       <c r="D39"/>
@@ -1325,7 +1325,7 @@
         <v>341</v>
       </c>
       <c r="I39" t="n">
-        <v>493.988772582323</v>
+        <v>499.372984954311</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1336,7 +1336,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>769.622811768491</v>
+        <v>724.900173277365</v>
       </c>
       <c r="C40"/>
       <c r="D40"/>
@@ -1349,7 +1349,7 @@
         <v>452</v>
       </c>
       <c r="I40" t="n">
-        <v>317.622811768491</v>
+        <v>272.900173277365</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1360,7 +1360,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>714.935499912302</v>
+        <v>655.000810551545</v>
       </c>
       <c r="C41"/>
       <c r="D41"/>
@@ -1373,7 +1373,7 @@
         <v>452</v>
       </c>
       <c r="I41" t="n">
-        <v>262.935499912302</v>
+        <v>203.000810551545</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1384,7 +1384,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>777.10205773345</v>
+        <v>771.077869928791</v>
       </c>
       <c r="C42"/>
       <c r="D42"/>
@@ -1397,7 +1397,7 @@
         <v>547</v>
       </c>
       <c r="I42" t="n">
-        <v>230.10205773345</v>
+        <v>224.077869928791</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1408,7 +1408,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>838.149972511153</v>
+        <v>850.360146738297</v>
       </c>
       <c r="C43"/>
       <c r="D43"/>
@@ -1421,7 +1421,7 @@
         <v>627</v>
       </c>
       <c r="I43" t="n">
-        <v>211.149972511153</v>
+        <v>223.360146738297</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1432,7 +1432,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>894.124812989243</v>
+        <v>936.265091577122</v>
       </c>
       <c r="C44"/>
       <c r="D44"/>
@@ -1445,7 +1445,7 @@
         <v>657</v>
       </c>
       <c r="I44" t="n">
-        <v>237.124812989243</v>
+        <v>279.265091577122</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1456,7 +1456,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>911.212088723518</v>
+        <v>946.085520695474</v>
       </c>
       <c r="C45"/>
       <c r="D45"/>
@@ -1469,7 +1469,7 @@
         <v>678</v>
       </c>
       <c r="I45" t="n">
-        <v>233.212088723518</v>
+        <v>268.085520695474</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1480,7 +1480,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>843.426258426795</v>
+        <v>867.682338716199</v>
       </c>
       <c r="C46"/>
       <c r="D46"/>
@@ -1493,7 +1493,7 @@
         <v>596</v>
       </c>
       <c r="I46" t="n">
-        <v>247.426258426795</v>
+        <v>271.682338716199</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1504,7 +1504,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>717.94566674388</v>
+        <v>756.234563338431</v>
       </c>
       <c r="C47"/>
       <c r="D47"/>
@@ -1517,7 +1517,7 @@
         <v>480</v>
       </c>
       <c r="I47" t="n">
-        <v>237.94566674388</v>
+        <v>276.234563338431</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1528,7 +1528,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>600.950887086224</v>
+        <v>611.779902750961</v>
       </c>
       <c r="C48"/>
       <c r="D48"/>
@@ -1541,7 +1541,7 @@
         <v>377</v>
       </c>
       <c r="I48" t="n">
-        <v>223.950887086224</v>
+        <v>234.779902750961</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1552,7 +1552,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>591.253318721126</v>
+        <v>582.364904818331</v>
       </c>
       <c r="C49"/>
       <c r="D49"/>
@@ -1565,7 +1565,7 @@
         <v>358</v>
       </c>
       <c r="I49" t="n">
-        <v>233.253318721126</v>
+        <v>224.364904818331</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
